--- a/INTLINE/data/134/DEUSTATIS/National accounts - GDP years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - GDP years.xlsx
@@ -192,7 +192,7 @@
     <t>Annual change in %.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:37:20</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:43:58</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1363,7 @@
         <v>3050.322</v>
       </c>
       <c r="AG6" t="n" s="11">
-        <v>3228.945</v>
+        <v>3226.339</v>
       </c>
     </row>
     <row r="7">
@@ -1464,7 +1464,7 @@
         <v>317.238</v>
       </c>
       <c r="AG7" t="n" s="11">
-        <v>341.675</v>
+        <v>344.281</v>
       </c>
     </row>
     <row r="8">
@@ -1565,7 +1565,7 @@
         <v>325.991</v>
       </c>
       <c r="AG8" t="n" s="11">
-        <v>363.543</v>
+        <v>365.953</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1666,7 @@
         <v>8.753</v>
       </c>
       <c r="AG9" t="n" s="11">
-        <v>21.868</v>
+        <v>21.672</v>
       </c>
     </row>
     <row r="10">
@@ -2075,7 +2075,7 @@
         <v>102.1</v>
       </c>
       <c r="AG14" t="n" s="11">
-        <v>105.09</v>
+        <v>105.02</v>
       </c>
     </row>
     <row r="15">
@@ -2176,7 +2176,7 @@
         <v>104.41</v>
       </c>
       <c r="AG15" t="n" s="11">
-        <v>107.13</v>
+        <v>107.85</v>
       </c>
     </row>
     <row r="16">
@@ -2277,7 +2277,7 @@
         <v>104.04</v>
       </c>
       <c r="AG16" t="n" s="11">
-        <v>107.22</v>
+        <v>107.9</v>
       </c>
     </row>
     <row r="17">
@@ -2378,7 +2378,7 @@
         <v>88.51</v>
       </c>
       <c r="AG17" t="n" s="11">
-        <v>105.86</v>
+        <v>105.45</v>
       </c>
     </row>
     <row r="18">
@@ -2787,7 +2787,7 @@
         <v>2779.182</v>
       </c>
       <c r="AG22" t="n" s="11">
-        <v>2860.571</v>
+        <v>2858.665</v>
       </c>
     </row>
     <row r="23">
@@ -3499,7 +3499,7 @@
         <v>2978.833</v>
       </c>
       <c r="AG30" t="n" s="11">
-        <v>3139.529</v>
+        <v>3137.349</v>
       </c>
     </row>
     <row r="31">
@@ -4170,7 +4170,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:37:23&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:44:02&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - GDP years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - GDP years.xlsx
@@ -192,7 +192,7 @@
     <t>Annual change in %.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:43:58</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:34:16</t>
   </si>
 </sst>
 </file>
@@ -4170,7 +4170,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:44:02&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:34:18&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>